--- a/test/fileWithData.xlsx
+++ b/test/fileWithData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>70,00</t>
+  </si>
+  <si>
+    <t>212,00</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="4">
-        <v>2.2730309E7</v>
+        <v>2.3073547E7</v>
       </c>
       <c r="B2" s="4">
         <v>1.0</v>
@@ -169,13 +172,13 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="4">
-        <v>2.2734147E7</v>
+        <v>2.3081603E7</v>
       </c>
       <c r="B3" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -202,15 +205,9 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>2.2741833E7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
